--- a/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDSens/EGRVlv_VDSens.xlsx
+++ b/spec/ASW/Eng/EGR/EGRVlv/EGRVlv_VDSens/EGRVlv_VDSens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\EGR\EGRVlv\EGRVlv_VDSens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D3BA55-614E-4050-BB60-5755DF8B18A9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2372888-7012-497C-838E-CAB1A01F9556}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="317">
   <si>
     <t>Name</t>
   </si>
@@ -779,12 +779,6 @@
   </si>
   <si>
     <t>Position constant for the integrator during valve closure</t>
-  </si>
-  <si>
-    <t>EGRVlv_rAdapDiffPlausLgT_C</t>
-  </si>
-  <si>
-    <t>Long time drift threshold</t>
   </si>
   <si>
     <t>EGRVlv_rOpnPosAdapDiffPlausLgT_C</t>
@@ -1396,7 +1390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1457,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -1575,7 +1569,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>25</v>
@@ -1624,7 +1618,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>29</v>
@@ -1650,7 +1644,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>31</v>
@@ -1687,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>35</v>
@@ -1713,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>37</v>
@@ -1727,10 +1721,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>39</v>
@@ -1756,7 +1750,7 @@
         <v>41</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>42</v>
@@ -1770,10 +1764,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>44</v>
@@ -1836,7 +1830,7 @@
         <v>3000</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -1845,7 +1839,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>51</v>
@@ -1924,7 +1918,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>53</v>
@@ -1950,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>55</v>
@@ -1999,7 +1993,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>59</v>
@@ -2025,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>61</v>
@@ -2143,7 +2137,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>71</v>
@@ -2189,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>75</v>
@@ -2215,7 +2209,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>77</v>
@@ -2241,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>79</v>
@@ -2267,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>81</v>
@@ -2290,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>83</v>
@@ -2368,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>85</v>
@@ -2394,7 +2388,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>87</v>
@@ -2420,7 +2414,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>89</v>
@@ -2446,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>91</v>
@@ -2771,7 +2765,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>119</v>
@@ -2794,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>121</v>
@@ -2912,7 +2906,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>130</v>
@@ -2938,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>132</v>
@@ -2964,7 +2958,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>134</v>
@@ -3151,7 +3145,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>150</v>
@@ -3197,7 +3191,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>154</v>
@@ -3223,7 +3217,7 @@
         <v>156</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>157</v>
@@ -3249,7 +3243,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>159</v>
@@ -3275,7 +3269,7 @@
         <v>156</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>161</v>
@@ -3301,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>163</v>
@@ -3315,10 +3309,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3378,7 +3372,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>165</v>
@@ -3404,7 +3398,7 @@
         <v>167</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>168</v>
@@ -3430,7 +3424,7 @@
         <v>167</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>170</v>
@@ -3453,7 +3447,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>172</v>
@@ -3476,7 +3470,7 @@
         <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>174</v>
@@ -3502,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>176</v>
@@ -3516,10 +3510,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>178</v>
@@ -3545,7 +3539,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>180</v>
@@ -3571,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>182</v>
@@ -3597,7 +3591,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>184</v>
@@ -3623,7 +3617,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>186</v>
@@ -3649,7 +3643,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>188</v>
@@ -3721,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>194</v>
@@ -3770,7 +3764,7 @@
         <v>50</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>199</v>
@@ -3819,7 +3813,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>202</v>
@@ -3845,7 +3839,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>204</v>
@@ -3871,7 +3865,7 @@
         <v>13</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>206</v>
@@ -3894,7 +3888,7 @@
         <v>0.7</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>208</v>
@@ -3920,7 +3914,7 @@
         <v>13</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>210</v>
@@ -3946,7 +3940,7 @@
         <v>156</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>212</v>
@@ -3972,7 +3966,7 @@
         <v>214</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>215</v>
@@ -3998,7 +3992,7 @@
         <v>13</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>217</v>
@@ -4024,7 +4018,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>219</v>
@@ -4050,7 +4044,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>221</v>
@@ -4076,7 +4070,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>223</v>
@@ -4102,7 +4096,7 @@
         <v>156</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>225</v>
@@ -4151,7 +4145,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>230</v>
@@ -4177,7 +4171,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>232</v>
@@ -4203,7 +4197,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>234</v>
@@ -4229,7 +4223,7 @@
         <v>13</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>236</v>
@@ -4255,7 +4249,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>238</v>
@@ -4278,7 +4272,7 @@
         <v>0.98</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>240</v>
@@ -4304,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>242</v>
@@ -4330,7 +4324,7 @@
         <v>156</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>244</v>
@@ -4356,7 +4350,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>246</v>
@@ -4376,13 +4370,13 @@
         <v>12</v>
       </c>
       <c r="E42" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>248</v>
@@ -4401,14 +4395,14 @@
       <c r="D43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="6">
-        <v>0</v>
+      <c r="E43" s="5">
+        <v>20</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>250</v>
@@ -4428,13 +4422,13 @@
         <v>12</v>
       </c>
       <c r="E44" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>252</v>
@@ -4445,22 +4439,22 @@
         <v>253</v>
       </c>
       <c r="B45" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C45" s="5">
-        <v>100</v>
+        <v>65535</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>254</v>
@@ -4471,22 +4465,22 @@
         <v>255</v>
       </c>
       <c r="B46" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C46" s="5">
-        <v>65535</v>
+        <v>100</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="5">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>256</v>
@@ -4506,13 +4500,13 @@
         <v>12</v>
       </c>
       <c r="E47" s="5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>258</v>
@@ -4532,13 +4526,13 @@
         <v>12</v>
       </c>
       <c r="E48" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>260</v>
@@ -4558,13 +4552,13 @@
         <v>12</v>
       </c>
       <c r="E49" s="5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>262</v>
@@ -4584,13 +4578,13 @@
         <v>12</v>
       </c>
       <c r="E50" s="5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>264</v>
@@ -4610,13 +4604,13 @@
         <v>12</v>
       </c>
       <c r="E51" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>266</v>
@@ -4642,7 +4636,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>268</v>
@@ -4653,22 +4647,22 @@
         <v>269</v>
       </c>
       <c r="B53" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C53" s="5">
-        <v>100</v>
+        <v>65535</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>270</v>
@@ -4694,15 +4688,15 @@
         <v>156</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -4714,16 +4708,13 @@
         <v>12</v>
       </c>
       <c r="E55" s="5">
-        <v>200</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4734,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="5">
-        <v>65535</v>
+        <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>12</v>
@@ -4743,33 +4734,36 @@
         <v>0</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>50000</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="B57" s="5">
-        <v>0</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4792,7 +4786,7 @@
         <v>41</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>278</v>
@@ -4806,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="5">
-        <v>50000</v>
+        <v>255</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>12</v>
@@ -4814,11 +4808,8 @@
       <c r="E59" s="5">
         <v>0</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G59" s="4" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>280</v>
@@ -4829,10 +4820,10 @@
         <v>281</v>
       </c>
       <c r="B60" s="5">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="C60" s="5">
-        <v>255</v>
+        <v>3000</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>12</v>
@@ -4840,8 +4831,11 @@
       <c r="E60" s="5">
         <v>0</v>
       </c>
+      <c r="F60" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="G60" s="4" t="s">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>282</v>
@@ -4867,7 +4861,7 @@
         <v>50</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>284</v>
@@ -4878,10 +4872,10 @@
         <v>285</v>
       </c>
       <c r="B62" s="5">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="C62" s="5">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>12</v>
@@ -4889,11 +4883,8 @@
       <c r="E62" s="5">
         <v>0</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="G62" s="4" t="s">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>286</v>
@@ -4927,10 +4918,10 @@
         <v>289</v>
       </c>
       <c r="B64" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C64" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>12</v>
@@ -4938,8 +4929,11 @@
       <c r="E64" s="5">
         <v>0</v>
       </c>
+      <c r="F64" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G64" s="4" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>290</v>
@@ -4950,10 +4944,10 @@
         <v>291</v>
       </c>
       <c r="B65" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C65" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>12</v>
@@ -4961,11 +4955,8 @@
       <c r="E65" s="5">
         <v>0</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G65" s="4" t="s">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>292</v>
@@ -4976,10 +4967,10 @@
         <v>293</v>
       </c>
       <c r="B66" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C66" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>12</v>
@@ -4987,8 +4978,11 @@
       <c r="E66" s="5">
         <v>0</v>
       </c>
+      <c r="F66" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G66" s="4" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>294</v>
@@ -4999,73 +4993,47 @@
         <v>295</v>
       </c>
       <c r="B67" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C67" s="5">
-        <v>100</v>
+        <v>65535</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B68" s="5">
         <v>0</v>
       </c>
       <c r="C68" s="5">
-        <v>65535</v>
+        <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="5">
-        <v>200</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0</v>
-      </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="4" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5113,7 +5081,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -5122,15 +5090,15 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="5">
         <v>100</v>
@@ -5139,10 +5107,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
